--- a/RMPP/Exe9.2E.xlsx
+++ b/RMPP/Exe9.2E.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwolloff/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54383424-81E8-504A-B66A-17A726D11FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEC619A-58F4-F940-9067-FBEEB1F1256A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>9.2E</a:t>
+              <a:t>Percentages Location A &amp; B </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -214,7 +214,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Percentage</c:v>
+            <c:v>Location A</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -329,7 +329,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Frequency</c:v>
+            <c:v>Location B</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -694,7 +694,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -708,7 +708,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1676,7 +1676,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/RMPP/Exe9.2E.xlsx
+++ b/RMPP/Exe9.2E.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwolloff/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwolloff/Desktop/MyPortfolio/RMPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEC619A-58F4-F940-9067-FBEEB1F1256A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D1B8EB-DDF1-244A-AFE2-D1A34A6C1745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Absent</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>From the Histogram we can see that in location A there are less absent frequencies than in Location B we can also see that location B absent frequencies are 31.2 % higher than location A we can also see that Sparse frequency is pretty even across both locations. We can also see that in Location A Abundant 46.4% making up nearly 50% of the total.</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
   </si>
 </sst>
 </file>
@@ -102,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -116,6 +122,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1673,31 +1682,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="91.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="S3" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1719,7 +1737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1743,20 +1761,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1765,7 +1783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1778,7 +1796,7 @@
         <v>45.454545454545453</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1791,7 +1809,7 @@
         <v>31.818181818181817</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1804,7 +1822,7 @@
         <v>22.727272727272727</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
